--- a/WebPage/Common/RptTemplet/0507Report.xlsx
+++ b/WebPage/Common/RptTemplet/0507Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EOS_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78811137-414C-4279-A65A-647DCF5EE941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA9CF8-D70F-443F-863B-AFCE29ACCC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15450" yWindow="-12075" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -121,16 +121,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,206 +422,207 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
